--- a/database/Design.xlsx
+++ b/database/Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MEET\TatvaSoft\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MEET\TatvaSoft\NoteMarketplace\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="152">
   <si>
     <t>USERS</t>
   </si>
@@ -705,6 +705,54 @@
   </si>
   <si>
     <t xml:space="preserve">id of buyer </t>
+  </si>
+  <si>
+    <t>TransectionTable</t>
+  </si>
+  <si>
+    <t>NoteTitle</t>
+  </si>
+  <si>
+    <t>title of note</t>
+  </si>
+  <si>
+    <t>NoteCategory</t>
+  </si>
+  <si>
+    <t>note category</t>
+  </si>
+  <si>
+    <t>BuyerEmail</t>
+  </si>
+  <si>
+    <t>Email of buyer</t>
+  </si>
+  <si>
+    <t>BuyerPhonenumber</t>
+  </si>
+  <si>
+    <t>phone number of buyer</t>
+  </si>
+  <si>
+    <t>SellType</t>
+  </si>
+  <si>
+    <t>Free or paid</t>
+  </si>
+  <si>
+    <t>SellerID</t>
+  </si>
+  <si>
+    <t>id of seller of  book</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>1 for allow download
+0 for don't allow download
+for free note by default 1 &amp; for paid note by default 0
+only can change by seller</t>
   </si>
 </sst>
 </file>
@@ -1172,24 +1220,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="65.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1198,14 +1246,14 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="22"/>
       <c r="D2" s="6"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1222,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +1300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1269,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -1286,7 +1334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -1303,7 +1351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
@@ -1320,7 +1368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +1383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1350,7 +1398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1366,7 +1414,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1381,7 +1429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1396,7 +1444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
@@ -1412,7 +1460,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>111</v>
       </c>
@@ -1430,7 +1478,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>37</v>
       </c>
@@ -1439,14 +1487,14 @@
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="22"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
@@ -1478,7 +1526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>39</v>
       </c>
@@ -1495,7 +1543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -1512,7 +1560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1575,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
@@ -1542,7 +1590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>27</v>
       </c>
@@ -1557,7 +1605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>29</v>
       </c>
@@ -1572,7 +1620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>31</v>
       </c>
@@ -1587,21 +1635,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="26"/>
       <c r="D34" s="18"/>
       <c r="E34" s="19"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="26"/>
       <c r="D35" s="18"/>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>47</v>
       </c>
@@ -1610,14 +1658,14 @@
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="22"/>
       <c r="D37" s="6"/>
       <c r="E37" s="13"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>1</v>
       </c>
@@ -1634,7 +1682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +1697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>95</v>
       </c>
@@ -1666,7 +1714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>96</v>
       </c>
@@ -1681,7 +1729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
@@ -1696,7 +1744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>97</v>
       </c>
@@ -1711,7 +1759,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>53</v>
       </c>
@@ -1726,7 +1774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>56</v>
       </c>
@@ -1741,7 +1789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>98</v>
       </c>
@@ -1758,7 +1806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>59</v>
       </c>
@@ -1775,7 +1823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
@@ -1790,7 +1838,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>62</v>
       </c>
@@ -1807,7 +1855,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>64</v>
       </c>
@@ -1824,7 +1872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>66</v>
       </c>
@@ -1841,7 +1889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>100</v>
       </c>
@@ -1856,7 +1904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>101</v>
       </c>
@@ -1871,7 +1919,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>102</v>
       </c>
@@ -1886,7 +1934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>126</v>
       </c>
@@ -1901,7 +1949,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>128</v>
       </c>
@@ -1916,7 +1964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>20</v>
       </c>
@@ -1931,7 +1979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>24</v>
       </c>
@@ -1946,7 +1994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>27</v>
       </c>
@@ -1961,7 +2009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>29</v>
       </c>
@@ -1976,7 +2024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>31</v>
       </c>
@@ -1991,28 +2039,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="26"/>
       <c r="D62" s="20"/>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="26"/>
       <c r="D63" s="20"/>
       <c r="E63" s="21"/>
     </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="26"/>
       <c r="D64" s="20"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>71</v>
       </c>
@@ -2021,14 +2069,14 @@
       <c r="D65" s="30"/>
       <c r="E65" s="30"/>
     </row>
-    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="22"/>
       <c r="D66" s="6"/>
       <c r="E66" s="13"/>
     </row>
-    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>1</v>
       </c>
@@ -2045,14 +2093,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="22"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>33</v>
       </c>
@@ -2084,7 +2132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>34</v>
       </c>
@@ -2101,7 +2149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>74</v>
       </c>
@@ -2116,7 +2164,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>76</v>
       </c>
@@ -2131,7 +2179,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>87</v>
       </c>
@@ -2146,7 +2194,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>88</v>
       </c>
@@ -2163,7 +2211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>79</v>
       </c>
@@ -2178,7 +2226,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>89</v>
       </c>
@@ -2195,7 +2243,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>90</v>
       </c>
@@ -2212,7 +2260,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>91</v>
       </c>
@@ -2229,7 +2277,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
@@ -2246,7 +2294,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>93</v>
       </c>
@@ -2263,7 +2311,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>94</v>
       </c>
@@ -2278,7 +2326,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>59</v>
       </c>
@@ -2295,7 +2343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -2312,7 +2360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>20</v>
       </c>
@@ -2327,7 +2375,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>24</v>
       </c>
@@ -2342,7 +2390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>27</v>
       </c>
@@ -2357,7 +2405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>29</v>
       </c>
@@ -2372,7 +2420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>31</v>
       </c>
@@ -2387,7 +2435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
         <v>103</v>
       </c>
@@ -2396,14 +2444,14 @@
       <c r="D93" s="30"/>
       <c r="E93" s="30"/>
     </row>
-    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="22"/>
       <c r="D94" s="6"/>
       <c r="E94" s="13"/>
     </row>
-    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>1</v>
       </c>
@@ -2420,7 +2468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>6</v>
       </c>
@@ -2435,7 +2483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>35</v>
       </c>
@@ -2452,7 +2500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>88</v>
       </c>
@@ -2469,7 +2517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>104</v>
       </c>
@@ -2486,7 +2534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>109</v>
       </c>
@@ -2501,7 +2549,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>110</v>
       </c>
@@ -2516,7 +2564,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>20</v>
       </c>
@@ -2531,7 +2579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>24</v>
       </c>
@@ -2546,7 +2594,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>27</v>
       </c>
@@ -2561,7 +2609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>29</v>
       </c>
@@ -2576,7 +2624,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>31</v>
       </c>
@@ -2591,7 +2639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
         <v>113</v>
       </c>
@@ -2600,14 +2648,14 @@
       <c r="D109" s="30"/>
       <c r="E109" s="30"/>
     </row>
-    <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="22"/>
       <c r="D110" s="6"/>
       <c r="E110" s="13"/>
     </row>
-    <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>1</v>
       </c>
@@ -2624,7 +2672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>6</v>
       </c>
@@ -2639,7 +2687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>39</v>
       </c>
@@ -2656,7 +2704,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>115</v>
       </c>
@@ -2673,7 +2721,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>20</v>
       </c>
@@ -2688,7 +2736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>24</v>
       </c>
@@ -2703,7 +2751,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>27</v>
       </c>
@@ -2718,7 +2766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>29</v>
       </c>
@@ -2733,7 +2781,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>31</v>
       </c>
@@ -2748,7 +2796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
         <v>117</v>
       </c>
@@ -2757,14 +2805,14 @@
       <c r="D122" s="30"/>
       <c r="E122" s="30"/>
     </row>
-    <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="22"/>
       <c r="D123" s="6"/>
       <c r="E123" s="13"/>
     </row>
-    <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>1</v>
       </c>
@@ -2781,7 +2829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>6</v>
       </c>
@@ -2796,7 +2844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>39</v>
       </c>
@@ -2813,7 +2861,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>118</v>
       </c>
@@ -2830,7 +2878,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>20</v>
       </c>
@@ -2845,7 +2893,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>24</v>
       </c>
@@ -2860,7 +2908,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>27</v>
       </c>
@@ -2875,7 +2923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>29</v>
       </c>
@@ -2890,7 +2938,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>31</v>
       </c>
@@ -2905,7 +2953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>121</v>
       </c>
@@ -2914,14 +2962,14 @@
       <c r="D135" s="30"/>
       <c r="E135" s="30"/>
     </row>
-    <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="22"/>
       <c r="D136" s="6"/>
       <c r="E136" s="13"/>
     </row>
-    <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>1</v>
       </c>
@@ -2938,7 +2986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>6</v>
       </c>
@@ -2953,7 +3001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>125</v>
       </c>
@@ -2970,7 +3018,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>122</v>
       </c>
@@ -2987,7 +3035,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>20</v>
       </c>
@@ -3002,7 +3050,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>24</v>
       </c>
@@ -3017,7 +3065,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>27</v>
       </c>
@@ -3032,7 +3080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>29</v>
       </c>
@@ -3047,7 +3095,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>31</v>
       </c>
@@ -3062,7 +3110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
         <v>135</v>
       </c>
@@ -3071,14 +3119,14 @@
       <c r="D149" s="30"/>
       <c r="E149" s="30"/>
     </row>
-    <row r="150" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="22"/>
       <c r="D150" s="6"/>
       <c r="E150" s="13"/>
     </row>
-    <row r="151" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>1</v>
       </c>
@@ -3095,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>6</v>
       </c>
@@ -3110,7 +3158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>130</v>
       </c>
@@ -3125,7 +3173,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>131</v>
       </c>
@@ -3140,7 +3188,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>20</v>
       </c>
@@ -3155,7 +3203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>24</v>
       </c>
@@ -3170,7 +3218,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>27</v>
       </c>
@@ -3185,7 +3233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>29</v>
       </c>
@@ -3200,7 +3248,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>31</v>
       </c>
@@ -3215,28 +3263,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
       <c r="C160" s="26"/>
       <c r="D160" s="28"/>
       <c r="E160" s="29"/>
     </row>
-    <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
       <c r="C161" s="26"/>
       <c r="D161" s="28"/>
       <c r="E161" s="29"/>
     </row>
-    <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
       <c r="C162" s="26"/>
       <c r="D162" s="28"/>
       <c r="E162" s="29"/>
     </row>
-    <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
         <v>134</v>
       </c>
@@ -3245,14 +3293,14 @@
       <c r="D163" s="30"/>
       <c r="E163" s="30"/>
     </row>
-    <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="22"/>
       <c r="D164" s="6"/>
       <c r="E164" s="13"/>
     </row>
-    <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>1</v>
       </c>
@@ -3269,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>6</v>
       </c>
@@ -3284,7 +3332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>130</v>
       </c>
@@ -3299,7 +3347,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>131</v>
       </c>
@@ -3314,7 +3362,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>20</v>
       </c>
@@ -3329,7 +3377,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>24</v>
       </c>
@@ -3344,7 +3392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>27</v>
       </c>
@@ -3359,7 +3407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>29</v>
       </c>
@@ -3374,7 +3422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>31</v>
       </c>
@@ -3389,18 +3437,256 @@
         <v>32</v>
       </c>
     </row>
+    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="13"/>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="22"/>
+      <c r="D179" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="22"/>
+      <c r="D180" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="22"/>
+      <c r="D181" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="22">
+        <v>20</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="22"/>
+      <c r="D183" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="22"/>
+      <c r="D184" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="22"/>
+      <c r="D185" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="22"/>
+      <c r="D186" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="13"/>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" s="22"/>
+      <c r="D188" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="22"/>
+      <c r="D189" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="22"/>
+      <c r="D192" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A93:E93"/>
     <mergeCell ref="A149:E149"/>
     <mergeCell ref="A163:E163"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A122:E122"/>
     <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A93:E93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
